--- a/REGULAR/HERNANDEZ, MARIO.xlsx
+++ b/REGULAR/HERNANDEZ, MARIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\MAHOGANY MARKET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEBB9B6-DDFB-4EA1-859F-56615B482501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -250,12 +249,18 @@
   </si>
   <si>
     <t>1/13-15/2023</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>MAHOGANY MARKET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -941,25 +946,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1266,34 +1271,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A77" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <pane ySplit="4050" topLeftCell="A79" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1314,11 +1319,13 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -1332,7 +1339,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1343,7 +1350,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="52" t="s">
+        <v>73</v>
+      </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1352,7 +1361,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1360,7 +1369,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1373,7 +1382,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1390,7 +1399,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1434,7 +1443,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>231.012</v>
+        <v>229.262</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1444,12 +1453,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>341.79</v>
+        <v>342.04</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1471,7 +1480,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1491,7 +1500,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1511,7 +1520,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1531,7 +1540,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1551,7 +1560,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1575,7 +1584,7 @@
         <v>43245</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -1595,7 +1604,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1615,7 +1624,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1635,7 +1644,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1655,7 +1664,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1681,7 +1690,7 @@
         <v>43401</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1701,7 +1710,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1725,7 +1734,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>48</v>
       </c>
@@ -1743,7 +1752,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -1763,7 +1772,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -1783,7 +1792,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -1803,7 +1812,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -1829,7 +1838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>45</v>
@@ -1846,7 +1855,7 @@
         <v>43611</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -1866,7 +1875,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -1886,7 +1895,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -1906,7 +1915,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -1926,7 +1935,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -1952,7 +1961,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
@@ -1971,7 +1980,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43739</v>
       </c>
@@ -1991,7 +2000,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43770</v>
       </c>
@@ -2011,7 +2020,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -2035,7 +2044,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>54</v>
       </c>
@@ -2053,7 +2062,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43831</v>
       </c>
@@ -2073,7 +2082,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43862</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43891</v>
       </c>
@@ -2117,7 +2126,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43922</v>
       </c>
@@ -2137,7 +2146,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43952</v>
       </c>
@@ -2157,7 +2166,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43983</v>
       </c>
@@ -2177,7 +2186,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44013</v>
       </c>
@@ -2203,7 +2212,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>62</v>
@@ -2222,7 +2231,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>45</v>
@@ -2239,7 +2248,7 @@
         <v>44045</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44044</v>
       </c>
@@ -2265,7 +2274,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -2291,7 +2300,7 @@
         <v>44094</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -2311,7 +2320,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44136</v>
       </c>
@@ -2331,7 +2340,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44166</v>
       </c>
@@ -2355,7 +2364,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>61</v>
@@ -2372,7 +2381,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>59</v>
       </c>
@@ -2390,7 +2399,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44197</v>
       </c>
@@ -2410,7 +2419,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44228</v>
       </c>
@@ -2430,7 +2439,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44256</v>
       </c>
@@ -2450,7 +2459,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44287</v>
       </c>
@@ -2470,7 +2479,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44317</v>
       </c>
@@ -2490,7 +2499,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44348</v>
       </c>
@@ -2510,7 +2519,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44378</v>
       </c>
@@ -2534,7 +2543,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44409</v>
       </c>
@@ -2554,7 +2563,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44440</v>
       </c>
@@ -2574,7 +2583,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44470</v>
       </c>
@@ -2594,7 +2603,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44501</v>
       </c>
@@ -2614,7 +2623,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44531</v>
       </c>
@@ -2638,7 +2647,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>64</v>
       </c>
@@ -2656,7 +2665,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44562</v>
       </c>
@@ -2676,7 +2685,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44593</v>
       </c>
@@ -2696,7 +2705,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44621</v>
       </c>
@@ -2722,7 +2731,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>65</v>
@@ -2741,7 +2750,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44652</v>
       </c>
@@ -2761,7 +2770,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44682</v>
       </c>
@@ -2781,7 +2790,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44713</v>
       </c>
@@ -2801,7 +2810,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44743</v>
       </c>
@@ -2825,7 +2834,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44774</v>
       </c>
@@ -2845,7 +2854,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44805</v>
       </c>
@@ -2871,7 +2880,7 @@
         <v>44822</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44835</v>
       </c>
@@ -2891,7 +2900,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44866</v>
       </c>
@@ -2917,7 +2926,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>46</v>
@@ -2939,7 +2948,7 @@
         <v>44892</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44896</v>
       </c>
@@ -2959,7 +2968,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>68</v>
       </c>
@@ -2977,7 +2986,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44927</v>
       </c>
@@ -3003,7 +3012,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44958</v>
       </c>
@@ -3027,31 +3036,41 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44986</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="B85" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="39"/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H85" s="39">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B86" s="20"/>
+      <c r="K85" s="49">
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="40"/>
+      <c r="B86" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="39"/>
+      <c r="D86" s="39">
+        <v>3</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
@@ -3061,11 +3080,11 @@
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="49"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3081,9 +3100,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3099,9 +3118,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3117,9 +3136,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3135,9 +3154,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3153,9 +3172,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3171,9 +3190,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3189,9 +3208,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3207,9 +3226,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3225,9 +3244,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3243,9 +3262,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3261,9 +3280,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3279,9 +3298,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3297,9 +3316,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3315,9 +3334,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3333,9 +3352,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3351,9 +3370,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3369,9 +3388,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3387,9 +3406,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3405,9 +3424,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3423,9 +3442,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3441,9 +3460,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3459,9 +3478,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3477,9 +3496,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3495,9 +3514,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3513,9 +3532,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3531,9 +3550,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3549,9 +3568,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3567,9 +3586,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3585,9 +3604,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3603,9 +3622,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3621,9 +3640,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3639,9 +3658,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3657,9 +3676,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3675,9 +3694,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3693,9 +3712,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3711,9 +3730,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3729,9 +3748,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3747,9 +3766,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3765,9 +3784,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3783,9 +3802,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3801,9 +3820,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3819,9 +3838,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3837,9 +3856,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3855,9 +3874,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3873,8 +3892,10 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="40">
+        <v>46388</v>
+      </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -3889,7 +3910,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3905,7 +3926,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -3921,7 +3942,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -3937,7 +3958,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -3953,21 +3974,37 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="41"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="43"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="41"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="43"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3984,10 +4021,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4010,28 +4047,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4044,7 +4081,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4073,7 +4110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>183.512</v>
       </c>
@@ -4097,17 +4134,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4128,7 +4165,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4155,7 +4192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4181,7 +4218,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4207,7 +4244,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4233,7 +4270,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4259,7 +4296,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4285,7 +4322,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4311,7 +4348,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4337,7 +4374,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4357,7 +4394,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4377,7 +4414,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4397,7 +4434,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4418,7 +4455,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4439,7 +4476,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4460,7 +4497,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4481,7 +4518,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4502,7 +4539,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4523,7 +4560,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4544,7 +4581,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4565,7 +4602,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4586,7 +4623,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4607,7 +4644,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4628,7 +4665,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4649,7 +4686,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4670,7 +4707,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4691,7 +4728,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4712,7 +4749,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4733,7 +4770,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4754,7 +4791,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4775,7 +4812,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4796,7 +4833,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4817,7 +4854,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4826,7 +4863,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4835,7 +4872,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4844,7 +4881,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4853,7 +4890,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4862,7 +4899,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4871,7 +4908,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4880,7 +4917,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4889,7 +4926,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4898,7 +4935,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4907,7 +4944,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4916,7 +4953,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4925,7 +4962,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4934,7 +4971,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4943,7 +4980,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4952,7 +4989,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4961,7 +4998,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4970,7 +5007,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4979,7 +5016,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4988,7 +5025,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4997,7 +5034,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5006,7 +5043,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5015,7 +5052,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5024,7 +5061,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5033,7 +5070,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5042,7 +5079,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5051,7 +5088,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5060,7 +5097,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5069,7 +5106,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5078,7 +5115,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
